--- a/pp/Final_plots/9_features_model/model_comparison_9.xlsx
+++ b/pp/Final_plots/9_features_model/model_comparison_9.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hangoclinh/Documents/Personal/Preprocessing-Student-Behavior-Prediction-Data/pp/Final_plots/9_features_model/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF77636B-8846-BA48-A793-B2AB53CBB7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Model</t>
   </si>
@@ -50,17 +55,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -68,28 +81,181 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="10">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -379,132 +545,127 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="59.5" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0.85</v>
       </c>
-      <c r="C2">
-        <v>0.65030835619071</v>
-      </c>
-      <c r="D2">
-        <v>0.83101842945635</v>
-      </c>
-      <c r="E2">
-        <v>0.68539535317285</v>
+      <c r="C2" s="1">
+        <v>0.65030835619071004</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.83101842945634996</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.68539535317285005</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>0.845</v>
-      </c>
-      <c r="C3">
-        <v>0.64632347897661</v>
-      </c>
-      <c r="D3">
-        <v>0.82830595206033</v>
-      </c>
-      <c r="E3">
-        <v>0.67975022813492</v>
+      <c r="B3" s="1">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.64632347897661002</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.82830595206032998</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.67975022813492003</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>0.9</v>
       </c>
-      <c r="C4">
-        <v>0.68935041979673</v>
-      </c>
-      <c r="D4">
-        <v>0.7802700934939</v>
-      </c>
-      <c r="E4">
-        <v>0.72222222222222</v>
+      <c r="C4" s="1">
+        <v>0.68935041979672995</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.78027009349389997</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.72222222222221999</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>0.83333333333333</v>
-      </c>
-      <c r="C5">
-        <v>0.64788510349829</v>
-      </c>
-      <c r="D5">
-        <v>0.86091339309761</v>
-      </c>
-      <c r="E5">
-        <v>0.67904827114002</v>
+      <c r="B5" s="1">
+        <v>0.83333333333333004</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.64788510349828998</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.86091339309760995</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.67904827114001998</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" ht="30" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>0.84833333333333</v>
-      </c>
-      <c r="C6">
-        <v>0.64380877742947</v>
-      </c>
-      <c r="D6">
+      <c r="B6" s="8">
+        <v>0.84833333333333005</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.64380877742946996</v>
+      </c>
+      <c r="D6" s="8">
         <v>0.81064599284368</v>
       </c>
-      <c r="E6">
-        <v>0.67698232868527</v>
+      <c r="E6" s="9">
+        <v>0.67698232868526997</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>